--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Wen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9B1E63D-C209-430E-A04A-D50A7FCBE938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6757DE-038F-4BE6-83D2-AA24B9064DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BD35CCC2-E5F8-46AD-BEA3-E5DC8B90754E}"/>
   </bookViews>
@@ -31,26 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FIPS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Met Healthy People Objective of ***?</t>
   </si>
   <si>
-    <t>Age-Adjusted Incidence Rate(†) - cases per 100,000</t>
-  </si>
-  <si>
-    <t>Lower 95% Confidence Interval</t>
-  </si>
-  <si>
-    <t>Upper 95% Confidence Interval</t>
-  </si>
-  <si>
     <t>Average Annual Count</t>
   </si>
   <si>
@@ -103,6 +88,24 @@
   </si>
   <si>
     <t xml:space="preserve">66.1 #  </t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>lci</t>
+  </si>
+  <si>
+    <t>uci</t>
+  </si>
+  <si>
+    <t>lci2</t>
+  </si>
+  <si>
+    <t>uci2</t>
   </si>
 </sst>
 </file>
@@ -454,232 +457,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF4B00E-8C67-4D50-B55C-13367EAF6BCE}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="28.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.1015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="25.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.26171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1015625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="25.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1015625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5234375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.26171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2">
+        <v>62.1</v>
+      </c>
+      <c r="D2">
+        <v>51.4</v>
+      </c>
+      <c r="E2">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2">
+        <v>-5.2</v>
+      </c>
+      <c r="I2">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="J2">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4">
+        <v>55.9</v>
+      </c>
+      <c r="D4">
+        <v>51.5</v>
+      </c>
+      <c r="E4">
+        <v>60.6</v>
+      </c>
+      <c r="F4">
+        <v>124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I4">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="J4">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>31001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>62.1</v>
-      </c>
-      <c r="E2">
-        <v>51.4</v>
-      </c>
-      <c r="F2">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2">
-        <v>-5.2</v>
-      </c>
-      <c r="J2">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="K2">
-        <v>32.799999999999997</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>38001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>45003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>55.9</v>
-      </c>
-      <c r="E4">
-        <v>51.5</v>
-      </c>
-      <c r="F4">
-        <v>60.6</v>
-      </c>
-      <c r="G4">
-        <v>124</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="J4">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="K4">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>27001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>26001</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
+      <c r="D6">
+        <v>51.2</v>
       </c>
       <c r="E6">
-        <v>51.2</v>
+        <v>86.7</v>
       </c>
       <c r="F6">
-        <v>86.7</v>
-      </c>
-      <c r="G6">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
-        <v>11</v>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>-3.6</v>
       </c>
       <c r="I6">
-        <v>-3.6</v>
+        <v>-26.5</v>
       </c>
       <c r="J6">
-        <v>-26.5</v>
-      </c>
-      <c r="K6">
         <v>26.3</v>
       </c>
     </row>
